--- a/OpsAndMats/Model148.xlsx
+++ b/OpsAndMats/Model148.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclark.LABTESTING\Documents\ERP Notes\Phase2_BOM\OpsAndMats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFB31DB-1979-4657-A470-4DD30505CA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Operations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="193">
   <si>
     <t>Item</t>
   </si>
@@ -320,9 +326,6 @@
     <t>2034701</t>
   </si>
   <si>
-    <t>3704701</t>
-  </si>
-  <si>
     <t>9816001</t>
   </si>
   <si>
@@ -396,9 +399,6 @@
   </si>
   <si>
     <t>Nut, ASF full, 1-8, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>1"-8 steel threaded rod</t>
   </si>
   <si>
     <t>Nickel Plating, Electroless</t>
@@ -605,8 +605,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +669,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -715,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,9 +755,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,6 +807,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -956,14 +1000,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1132,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1177,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1215,10 +1261,10 @@
         <v>4</v>
       </c>
       <c r="T3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1260,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1298,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1343,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1381,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1426,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1464,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1509,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1547,10 +1593,10 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1592,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1630,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1675,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1695,7 +1741,7 @@
         <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -1713,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="T9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1758,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1778,7 +1824,7 @@
         <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -1796,10 +1842,10 @@
         <v>4</v>
       </c>
       <c r="T10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1841,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1861,7 +1907,7 @@
         <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1879,10 +1925,10 @@
         <v>4</v>
       </c>
       <c r="T11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1924,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1944,7 +1990,7 @@
         <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1962,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2007,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -2027,7 +2073,7 @@
         <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -2045,10 +2091,10 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2090,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2110,7 +2156,7 @@
         <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K14">
         <v>13</v>
@@ -2128,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2173,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2193,7 +2239,7 @@
         <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K15">
         <v>14</v>
@@ -2211,10 +2257,10 @@
         <v>2</v>
       </c>
       <c r="T15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2256,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2276,7 +2322,7 @@
         <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -2294,10 +2340,10 @@
         <v>3</v>
       </c>
       <c r="T16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2339,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2359,7 +2405,7 @@
         <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K17">
         <v>16</v>
@@ -2377,10 +2423,10 @@
         <v>3</v>
       </c>
       <c r="T17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2422,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2442,7 +2488,7 @@
         <v>92</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K18">
         <v>17</v>
@@ -2460,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="T18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2505,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2525,7 +2571,7 @@
         <v>93</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K19">
         <v>18</v>
@@ -2543,10 +2589,10 @@
         <v>2</v>
       </c>
       <c r="T19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2588,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2608,7 +2654,7 @@
         <v>94</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K20">
         <v>19</v>
@@ -2626,10 +2672,10 @@
         <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2671,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2691,7 +2737,7 @@
         <v>95</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K21">
         <v>20</v>
@@ -2709,10 +2755,10 @@
         <v>8</v>
       </c>
       <c r="T21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2754,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2774,7 +2820,7 @@
         <v>96</v>
       </c>
       <c r="J22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K22">
         <v>21</v>
@@ -2792,10 +2838,10 @@
         <v>8</v>
       </c>
       <c r="T22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2837,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2857,7 +2903,7 @@
         <v>97</v>
       </c>
       <c r="J23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K23">
         <v>22</v>
@@ -2875,10 +2921,10 @@
         <v>8</v>
       </c>
       <c r="T23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2920,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2958,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3003,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3041,10 +3087,10 @@
         <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3086,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -3124,10 +3170,10 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3169,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3189,7 +3235,7 @@
         <v>86</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -3207,10 +3253,10 @@
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3252,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -3272,7 +3318,7 @@
         <v>87</v>
       </c>
       <c r="J28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3290,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3335,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3355,7 +3401,7 @@
         <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -3373,10 +3419,10 @@
         <v>1</v>
       </c>
       <c r="T29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3418,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -3438,7 +3484,7 @@
         <v>89</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3456,10 +3502,10 @@
         <v>2</v>
       </c>
       <c r="T30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3501,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3521,7 +3567,7 @@
         <v>90</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K31">
         <v>6</v>
@@ -3539,10 +3585,10 @@
         <v>3</v>
       </c>
       <c r="T31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3584,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -3604,7 +3650,7 @@
         <v>91</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K32">
         <v>7</v>
@@ -3622,10 +3668,10 @@
         <v>3</v>
       </c>
       <c r="T32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3667,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -3687,7 +3733,7 @@
         <v>98</v>
       </c>
       <c r="J33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3705,11 +3751,11 @@
         <v>1.25</v>
       </c>
       <c r="T33" t="s">
+        <v>133</v>
+      </c>
+      <c r="U33" t="s">
         <v>135</v>
       </c>
-      <c r="U33" t="s">
-        <v>137</v>
-      </c>
       <c r="V33">
         <v>0</v>
       </c>
@@ -3750,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3770,7 +3816,7 @@
         <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3788,10 +3834,10 @@
         <v>25</v>
       </c>
       <c r="T34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3833,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3871,10 +3917,10 @@
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3916,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -3936,7 +3982,7 @@
         <v>100</v>
       </c>
       <c r="J36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3954,10 +4000,10 @@
         <v>2</v>
       </c>
       <c r="T36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3999,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -4037,10 +4083,10 @@
         <v>1</v>
       </c>
       <c r="T37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4082,12 +4128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -4099,7 +4145,7 @@
         <v>79</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J38" t="s">
         <v>127</v>
@@ -4117,13 +4163,13 @@
         <v>8</v>
       </c>
       <c r="S38">
-        <v>5.9375</v>
+        <v>6</v>
       </c>
       <c r="T38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4165,24 +4211,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J39" t="s">
         <v>128</v>
@@ -4203,10 +4249,10 @@
         <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4248,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -4256,19 +4302,19 @@
         <v>70</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J40" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4283,13 +4329,13 @@
         <v>8</v>
       </c>
       <c r="S40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U40" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4331,15 +4377,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
         <v>77</v>
@@ -4348,10 +4394,10 @@
         <v>82</v>
       </c>
       <c r="I41" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4369,10 +4415,10 @@
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4414,33 +4460,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E42">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4452,10 +4498,10 @@
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4497,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -4514,16 +4560,16 @@
         <v>82</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
         <v>71</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -4532,13 +4578,13 @@
         <v>8</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4580,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -4588,25 +4634,25 @@
         <v>71</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="J44" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4615,10 +4661,10 @@
         <v>8</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U44" t="s">
         <v>136</v>
@@ -4663,9 +4709,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
@@ -4686,10 +4732,10 @@
         <v>71</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4698,13 +4744,13 @@
         <v>8</v>
       </c>
       <c r="S45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4746,33 +4792,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
         <v>71</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4781,13 +4827,13 @@
         <v>8</v>
       </c>
       <c r="S46">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U46" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4829,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -4846,16 +4892,16 @@
         <v>82</v>
       </c>
       <c r="I47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J47" t="s">
         <v>71</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -4867,10 +4913,10 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -4912,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4929,16 +4975,16 @@
         <v>82</v>
       </c>
       <c r="I48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s">
         <v>71</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4947,13 +4993,13 @@
         <v>8</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4995,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -5012,16 +5058,16 @@
         <v>82</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="J49" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5030,13 +5076,13 @@
         <v>8</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5078,9 +5124,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
@@ -5095,16 +5141,16 @@
         <v>82</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J50" t="s">
         <v>71</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5116,10 +5162,10 @@
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -5161,9 +5207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
         <v>71</v>
@@ -5178,16 +5224,16 @@
         <v>82</v>
       </c>
       <c r="I51" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5199,10 +5245,10 @@
         <v>2</v>
       </c>
       <c r="T51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5244,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -5261,16 +5307,16 @@
         <v>82</v>
       </c>
       <c r="I52" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s">
         <v>71</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5279,13 +5325,13 @@
         <v>8</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5327,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -5344,16 +5390,16 @@
         <v>82</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="J53" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5365,10 +5411,10 @@
         <v>2</v>
       </c>
       <c r="T53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5410,9 +5456,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>71</v>
@@ -5421,22 +5467,22 @@
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="J54" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5445,13 +5491,13 @@
         <v>8</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="T54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5493,9 +5539,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
@@ -5504,22 +5550,22 @@
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s">
         <v>105</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -5528,13 +5574,13 @@
         <v>8</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="T55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5576,9 +5622,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>71</v>
@@ -5593,10 +5639,10 @@
         <v>79</v>
       </c>
       <c r="I56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5614,10 +5660,10 @@
         <v>45</v>
       </c>
       <c r="T56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5659,9 +5705,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
@@ -5676,10 +5722,10 @@
         <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -5694,13 +5740,13 @@
         <v>8</v>
       </c>
       <c r="S57">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="T57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5742,9 +5788,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>71</v>
@@ -5759,10 +5805,10 @@
         <v>79</v>
       </c>
       <c r="I58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -5777,13 +5823,13 @@
         <v>8</v>
       </c>
       <c r="S58">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="T58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5825,27 +5871,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E59">
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="J59" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5860,13 +5906,13 @@
         <v>8</v>
       </c>
       <c r="S59">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="T59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -5908,33 +5954,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E60">
         <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="J60" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5943,13 +5989,13 @@
         <v>8</v>
       </c>
       <c r="S60">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U60" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -5991,9 +6037,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
@@ -6002,16 +6048,16 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="J61" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -6026,13 +6072,13 @@
         <v>8</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -6074,9 +6120,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
@@ -6085,22 +6131,22 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I62" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="J62" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -6109,13 +6155,13 @@
         <v>8</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T62" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -6157,9 +6203,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
@@ -6168,16 +6214,16 @@
         <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J63" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -6192,13 +6238,13 @@
         <v>8</v>
       </c>
       <c r="S63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U63" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -6240,27 +6286,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J64" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -6275,13 +6321,13 @@
         <v>8</v>
       </c>
       <c r="S64">
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="T64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U64" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -6323,9 +6369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
@@ -6361,10 +6407,10 @@
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6406,9 +6452,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
@@ -6426,7 +6472,7 @@
         <v>99</v>
       </c>
       <c r="J66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -6444,10 +6490,10 @@
         <v>25</v>
       </c>
       <c r="T66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -6489,9 +6535,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -6527,10 +6573,10 @@
         <v>1</v>
       </c>
       <c r="T67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -6572,9 +6618,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
@@ -6592,7 +6638,7 @@
         <v>99</v>
       </c>
       <c r="J68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6610,10 +6656,10 @@
         <v>25</v>
       </c>
       <c r="T68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -6655,9 +6701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
@@ -6693,10 +6739,10 @@
         <v>1</v>
       </c>
       <c r="T69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -6738,9 +6784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
@@ -6758,7 +6804,7 @@
         <v>99</v>
       </c>
       <c r="J70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6776,10 +6822,10 @@
         <v>25</v>
       </c>
       <c r="T70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -6818,172 +6864,6 @@
         <v>0</v>
       </c>
       <c r="AQ70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:43">
-      <c r="A71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E71">
-        <v>10</v>
-      </c>
-      <c r="G71" t="s">
-        <v>77</v>
-      </c>
-      <c r="H71" t="s">
-        <v>82</v>
-      </c>
-      <c r="I71" t="s">
-        <v>59</v>
-      </c>
-      <c r="J71" t="s">
-        <v>72</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="R71" t="s">
-        <v>8</v>
-      </c>
-      <c r="S71">
-        <v>1</v>
-      </c>
-      <c r="T71" t="s">
-        <v>135</v>
-      </c>
-      <c r="U71" t="s">
-        <v>136</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>1</v>
-      </c>
-      <c r="AF71">
-        <v>1</v>
-      </c>
-      <c r="AG71">
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AK71">
-        <v>0</v>
-      </c>
-      <c r="AL71">
-        <v>0</v>
-      </c>
-      <c r="AM71">
-        <v>0</v>
-      </c>
-      <c r="AN71">
-        <v>0</v>
-      </c>
-      <c r="AO71">
-        <v>0</v>
-      </c>
-      <c r="AP71">
-        <v>0</v>
-      </c>
-      <c r="AQ71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:43">
-      <c r="A72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="E72">
-        <v>30</v>
-      </c>
-      <c r="G72" t="s">
-        <v>75</v>
-      </c>
-      <c r="H72" t="s">
-        <v>80</v>
-      </c>
-      <c r="I72" t="s">
-        <v>99</v>
-      </c>
-      <c r="J72" t="s">
-        <v>125</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="R72" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72">
-        <v>25</v>
-      </c>
-      <c r="T72" t="s">
-        <v>135</v>
-      </c>
-      <c r="U72" t="s">
-        <v>138</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="AB72">
-        <v>1</v>
-      </c>
-      <c r="AF72">
-        <v>1</v>
-      </c>
-      <c r="AG72">
-        <v>0</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-      <c r="AK72">
-        <v>0</v>
-      </c>
-      <c r="AL72">
-        <v>0</v>
-      </c>
-      <c r="AM72">
-        <v>0</v>
-      </c>
-      <c r="AN72">
-        <v>0</v>
-      </c>
-      <c r="AO72">
-        <v>0</v>
-      </c>
-      <c r="AP72">
-        <v>0</v>
-      </c>
-      <c r="AQ72">
         <v>0</v>
       </c>
     </row>
@@ -6993,14 +6873,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AW55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7026,61 +6908,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -7089,67 +6971,67 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>177</v>
-      </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -7169,19 +7051,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P2">
         <v>0.5</v>
@@ -7214,28 +7096,28 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
         <v>189</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>190</v>
       </c>
-      <c r="AH2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
         <v>191</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>192</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>194</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -7259,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -7279,19 +7161,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P3">
         <v>0.5</v>
@@ -7324,28 +7206,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
         <v>189</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AK3" t="s">
         <v>190</v>
       </c>
-      <c r="AH3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
         <v>191</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AN3" t="s">
         <v>192</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>194</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -7369,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -7389,19 +7271,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P4">
         <v>0.5</v>
@@ -7434,28 +7316,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
         <v>189</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AK4" t="s">
         <v>190</v>
       </c>
-      <c r="AH4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
         <v>191</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>192</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>194</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -7479,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -7499,19 +7381,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -7544,28 +7426,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
         <v>189</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AK5" t="s">
         <v>190</v>
       </c>
-      <c r="AH5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
         <v>191</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AN5" t="s">
         <v>192</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>194</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -7589,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -7609,19 +7491,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -7654,28 +7536,28 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
         <v>189</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AK6" t="s">
         <v>190</v>
       </c>
-      <c r="AH6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="s">
         <v>191</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AN6" t="s">
         <v>192</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>194</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -7699,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -7710,28 +7592,28 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -7764,28 +7646,28 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="s">
         <v>189</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AK7" t="s">
         <v>190</v>
       </c>
-      <c r="AH7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="s">
         <v>191</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AN7" t="s">
         <v>192</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>194</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -7809,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -7829,19 +7711,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -7874,28 +7756,28 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
         <v>189</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AK8" t="s">
         <v>190</v>
       </c>
-      <c r="AH8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="s">
         <v>191</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AN8" t="s">
         <v>192</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>194</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -7919,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -7939,19 +7821,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -7984,28 +7866,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
         <v>189</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AK9" t="s">
         <v>190</v>
       </c>
-      <c r="AH9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
         <v>191</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AN9" t="s">
         <v>192</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>194</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -8029,12 +7911,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -8049,19 +7931,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -8094,28 +7976,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
         <v>189</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AK10" t="s">
         <v>190</v>
       </c>
-      <c r="AH10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="s">
         <v>191</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AN10" t="s">
         <v>192</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>194</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -8139,39 +8021,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -8204,28 +8086,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
         <v>189</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AK11" t="s">
         <v>190</v>
       </c>
-      <c r="AH11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="s">
         <v>191</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AN11" t="s">
         <v>192</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>194</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -8249,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -8257,31 +8139,31 @@
         <v>70</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P12">
         <v>0.5</v>
@@ -8314,28 +8196,28 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
         <v>189</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AK12" t="s">
         <v>190</v>
       </c>
-      <c r="AH12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
         <v>191</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AN12" t="s">
         <v>192</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>194</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -8359,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -8367,7 +8249,7 @@
         <v>70</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>179</v>
@@ -8379,19 +8261,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P13">
         <v>0.5</v>
@@ -8424,28 +8306,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
         <v>189</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AK13" t="s">
         <v>190</v>
       </c>
-      <c r="AH13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="s">
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="s">
         <v>191</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AN13" t="s">
         <v>192</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>194</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -8469,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -8477,31 +8359,31 @@
         <v>70</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>184</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>186</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -8534,28 +8416,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
         <v>189</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AK14" t="s">
         <v>190</v>
       </c>
-      <c r="AH14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="s">
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="s">
         <v>191</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AN14" t="s">
         <v>192</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>194</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -8579,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -8587,31 +8469,31 @@
         <v>70</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P15">
         <v>0.5</v>
@@ -8644,28 +8526,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="s">
         <v>189</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AK15" t="s">
         <v>190</v>
       </c>
-      <c r="AH15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="s">
         <v>191</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AN15" t="s">
         <v>192</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>194</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -8689,15 +8571,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>77</v>
@@ -8709,19 +8591,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P16">
         <v>0.5</v>
@@ -8754,28 +8636,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="s">
         <v>189</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AK16" t="s">
         <v>190</v>
       </c>
-      <c r="AH16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="s">
         <v>191</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AN16" t="s">
         <v>192</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>194</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -8799,39 +8681,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P17">
         <v>0.5</v>
@@ -8864,28 +8746,28 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
         <v>189</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AK17" t="s">
         <v>190</v>
       </c>
-      <c r="AH17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="s">
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="s">
         <v>191</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AN17" t="s">
         <v>192</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>194</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -8909,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8917,31 +8799,31 @@
         <v>71</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P18">
         <v>0.5</v>
@@ -8974,28 +8856,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="s">
         <v>189</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AK18" t="s">
         <v>190</v>
       </c>
-      <c r="AH18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="s">
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>191</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AN18" t="s">
         <v>192</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>194</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -9019,39 +8901,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P19">
         <v>0.5</v>
@@ -9084,28 +8966,28 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="s">
         <v>189</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AK19" t="s">
         <v>190</v>
       </c>
-      <c r="AH19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="s">
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="s">
         <v>191</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AN19" t="s">
         <v>192</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>194</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -9129,39 +9011,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P20">
         <v>0.5</v>
@@ -9194,28 +9076,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="s">
         <v>189</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AK20" t="s">
         <v>190</v>
       </c>
-      <c r="AH20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="s">
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="s">
         <v>191</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AN20" t="s">
         <v>192</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>194</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -9239,9 +9121,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -9250,28 +9132,28 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P21">
         <v>0.5</v>
@@ -9304,28 +9186,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="s">
         <v>189</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AK21" t="s">
         <v>190</v>
       </c>
-      <c r="AH21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="s">
         <v>191</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AN21" t="s">
         <v>192</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>194</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -9349,39 +9231,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L22">
         <v>0.5</v>
       </c>
       <c r="M22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P22">
         <v>0.5</v>
@@ -9414,28 +9296,28 @@
         <v>1</v>
       </c>
       <c r="AE22" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="s">
         <v>189</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AK22" t="s">
         <v>190</v>
       </c>
-      <c r="AH22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="s">
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="s">
         <v>191</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AN22" t="s">
         <v>192</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>194</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -9459,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -9467,31 +9349,31 @@
         <v>71</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L23">
         <v>0.5</v>
       </c>
       <c r="M23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P23">
         <v>0.5</v>
@@ -9524,28 +9406,28 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="s">
         <v>189</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AK23" t="s">
         <v>190</v>
       </c>
-      <c r="AH23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="s">
         <v>191</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AN23" t="s">
         <v>192</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>194</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -9569,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -9577,7 +9459,7 @@
         <v>71</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
         <v>179</v>
@@ -9589,19 +9471,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P24">
         <v>0.5</v>
@@ -9634,28 +9516,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="s">
         <v>189</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AK24" t="s">
         <v>190</v>
       </c>
-      <c r="AH24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="s">
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="s">
         <v>191</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AN24" t="s">
         <v>192</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>194</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -9679,39 +9561,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
         <v>184</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>186</v>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P25">
         <v>0.5</v>
@@ -9744,28 +9626,28 @@
         <v>1</v>
       </c>
       <c r="AE25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="s">
         <v>189</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AK25" t="s">
         <v>190</v>
       </c>
-      <c r="AH25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="s">
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="s">
         <v>191</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AN25" t="s">
         <v>192</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>194</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -9789,39 +9671,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" t="s">
         <v>181</v>
       </c>
-      <c r="H26" t="s">
-        <v>185</v>
-      </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L26">
         <v>0.5</v>
       </c>
       <c r="M26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P26">
         <v>0.5</v>
@@ -9854,28 +9736,28 @@
         <v>1</v>
       </c>
       <c r="AE26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="s">
         <v>189</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AK26" t="s">
         <v>190</v>
       </c>
-      <c r="AH26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="s">
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="s">
         <v>191</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AN26" t="s">
         <v>192</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>194</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -9899,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -9907,31 +9789,31 @@
         <v>71</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L27">
         <v>0.5</v>
       </c>
       <c r="M27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P27">
         <v>0.5</v>
@@ -9964,28 +9846,28 @@
         <v>1</v>
       </c>
       <c r="AE27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="s">
         <v>189</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AK27" t="s">
         <v>190</v>
       </c>
-      <c r="AH27" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="s">
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="s">
         <v>191</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AN27" t="s">
         <v>192</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>194</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -10009,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -10017,7 +9899,7 @@
         <v>71</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>179</v>
@@ -10029,19 +9911,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L28">
         <v>0.5</v>
       </c>
       <c r="M28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P28">
         <v>0.5</v>
@@ -10074,28 +9956,28 @@
         <v>1</v>
       </c>
       <c r="AE28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="s">
         <v>189</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AK28" t="s">
         <v>190</v>
       </c>
-      <c r="AH28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="s">
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="s">
         <v>191</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AN28" t="s">
         <v>192</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>194</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -10119,39 +10001,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
       <c r="E29">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
         <v>184</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>186</v>
       </c>
       <c r="L29">
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P29">
         <v>0.5</v>
@@ -10184,28 +10066,28 @@
         <v>1</v>
       </c>
       <c r="AE29" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="s">
         <v>189</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AK29" t="s">
         <v>190</v>
       </c>
-      <c r="AH29" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="s">
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="s">
         <v>191</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AN29" t="s">
         <v>192</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>194</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -10229,39 +10111,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" t="s">
         <v>181</v>
       </c>
-      <c r="H30" t="s">
-        <v>185</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L30">
         <v>0.5</v>
       </c>
       <c r="M30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P30">
         <v>0.5</v>
@@ -10294,28 +10176,28 @@
         <v>1</v>
       </c>
       <c r="AE30" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="s">
         <v>189</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AK30" t="s">
         <v>190</v>
       </c>
-      <c r="AH30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="s">
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="s">
         <v>191</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AN30" t="s">
         <v>192</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>194</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -10339,7 +10221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -10347,31 +10229,31 @@
         <v>71</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L31">
         <v>0.5</v>
       </c>
       <c r="M31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P31">
         <v>0.5</v>
@@ -10404,28 +10286,28 @@
         <v>1</v>
       </c>
       <c r="AE31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="s">
         <v>189</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AK31" t="s">
         <v>190</v>
       </c>
-      <c r="AH31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="s">
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="s">
         <v>191</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AN31" t="s">
         <v>192</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>194</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -10449,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -10457,7 +10339,7 @@
         <v>71</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>179</v>
@@ -10469,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L32">
         <v>0.5</v>
       </c>
       <c r="M32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P32">
         <v>0.5</v>
@@ -10514,28 +10396,28 @@
         <v>1</v>
       </c>
       <c r="AE32" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="s">
         <v>189</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AK32" t="s">
         <v>190</v>
       </c>
-      <c r="AH32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="s">
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="s">
         <v>191</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AN32" t="s">
         <v>192</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>194</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -10559,39 +10441,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
       <c r="E33">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
         <v>184</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>186</v>
       </c>
       <c r="L33">
         <v>0.5</v>
       </c>
       <c r="M33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P33">
         <v>0.5</v>
@@ -10624,28 +10506,28 @@
         <v>1</v>
       </c>
       <c r="AE33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="s">
         <v>189</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AK33" t="s">
         <v>190</v>
       </c>
-      <c r="AH33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="s">
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="s">
         <v>191</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AN33" t="s">
         <v>192</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>194</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -10669,39 +10551,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L34">
         <v>0.5</v>
       </c>
       <c r="M34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P34">
         <v>0.5</v>
@@ -10734,28 +10616,28 @@
         <v>1</v>
       </c>
       <c r="AE34" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="s">
         <v>189</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AK34" t="s">
         <v>190</v>
       </c>
-      <c r="AH34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="s">
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="s">
         <v>191</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AN34" t="s">
         <v>192</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>194</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -10779,39 +10661,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L35">
         <v>0.5</v>
       </c>
       <c r="M35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P35">
         <v>0.5</v>
@@ -10844,28 +10726,28 @@
         <v>1</v>
       </c>
       <c r="AE35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="s">
         <v>189</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AK35" t="s">
         <v>190</v>
       </c>
-      <c r="AH35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="s">
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="s">
         <v>191</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AN35" t="s">
         <v>192</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>194</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -10889,12 +10771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -10909,19 +10791,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L36">
         <v>0.5</v>
       </c>
       <c r="M36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P36">
         <v>0.5</v>
@@ -10954,28 +10836,28 @@
         <v>1</v>
       </c>
       <c r="AE36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="s">
         <v>189</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AK36" t="s">
         <v>190</v>
       </c>
-      <c r="AH36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="s">
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="s">
         <v>191</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AN36" t="s">
         <v>192</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>194</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -10999,39 +10881,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L37">
         <v>0.5</v>
       </c>
       <c r="M37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P37">
         <v>0.5</v>
@@ -11064,28 +10946,28 @@
         <v>1</v>
       </c>
       <c r="AE37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="s">
         <v>189</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AK37" t="s">
         <v>190</v>
       </c>
-      <c r="AH37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="s">
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="s">
         <v>191</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AN37" t="s">
         <v>192</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>194</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -11109,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -11117,31 +10999,31 @@
         <v>72</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L38">
         <v>0.5</v>
       </c>
       <c r="M38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P38">
         <v>0.5</v>
@@ -11174,28 +11056,28 @@
         <v>1</v>
       </c>
       <c r="AE38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="s">
         <v>189</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AK38" t="s">
         <v>190</v>
       </c>
-      <c r="AH38" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="s">
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="s">
         <v>191</v>
       </c>
-      <c r="AK38" t="s">
+      <c r="AN38" t="s">
         <v>192</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>194</v>
       </c>
       <c r="AO38">
         <v>0</v>
@@ -11219,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -11227,7 +11109,7 @@
         <v>72</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
         <v>179</v>
@@ -11239,19 +11121,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L39">
         <v>0.5</v>
       </c>
       <c r="M39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P39">
         <v>0.5</v>
@@ -11284,28 +11166,28 @@
         <v>1</v>
       </c>
       <c r="AE39" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="s">
         <v>189</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AK39" t="s">
         <v>190</v>
       </c>
-      <c r="AH39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="s">
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="s">
         <v>191</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AN39" t="s">
         <v>192</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>194</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -11329,39 +11211,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
         <v>72</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
         <v>184</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>186</v>
       </c>
       <c r="L40">
         <v>0.5</v>
       </c>
       <c r="M40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P40">
         <v>0.5</v>
@@ -11394,28 +11276,28 @@
         <v>1</v>
       </c>
       <c r="AE40" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="s">
         <v>189</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AK40" t="s">
         <v>190</v>
       </c>
-      <c r="AH40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="s">
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="s">
         <v>191</v>
       </c>
-      <c r="AK40" t="s">
+      <c r="AN40" t="s">
         <v>192</v>
-      </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>194</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -11439,39 +11321,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
         <v>72</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" t="s">
         <v>181</v>
       </c>
-      <c r="H41" t="s">
-        <v>185</v>
-      </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L41">
         <v>0.5</v>
       </c>
       <c r="M41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P41">
         <v>0.5</v>
@@ -11504,28 +11386,28 @@
         <v>1</v>
       </c>
       <c r="AE41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="s">
         <v>189</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AK41" t="s">
         <v>190</v>
       </c>
-      <c r="AH41" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="s">
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="s">
         <v>191</v>
       </c>
-      <c r="AK41" t="s">
+      <c r="AN41" t="s">
         <v>192</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>194</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -11549,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -11557,31 +11439,31 @@
         <v>72</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L42">
         <v>0.5</v>
       </c>
       <c r="M42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P42">
         <v>0.5</v>
@@ -11614,28 +11496,28 @@
         <v>1</v>
       </c>
       <c r="AE42" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="s">
         <v>189</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AK42" t="s">
         <v>190</v>
       </c>
-      <c r="AH42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="s">
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="s">
         <v>191</v>
       </c>
-      <c r="AK42" t="s">
+      <c r="AN42" t="s">
         <v>192</v>
-      </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>194</v>
       </c>
       <c r="AO42">
         <v>0</v>
@@ -11659,7 +11541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -11667,7 +11549,7 @@
         <v>72</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
         <v>179</v>
@@ -11679,19 +11561,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L43">
         <v>0.5</v>
       </c>
       <c r="M43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P43">
         <v>0.5</v>
@@ -11724,28 +11606,28 @@
         <v>1</v>
       </c>
       <c r="AE43" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="s">
         <v>189</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AK43" t="s">
         <v>190</v>
       </c>
-      <c r="AH43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="s">
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="s">
         <v>191</v>
       </c>
-      <c r="AK43" t="s">
+      <c r="AN43" t="s">
         <v>192</v>
-      </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>194</v>
       </c>
       <c r="AO43">
         <v>0</v>
@@ -11769,39 +11651,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
         <v>72</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
         <v>184</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>186</v>
       </c>
       <c r="L44">
         <v>0.5</v>
       </c>
       <c r="M44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P44">
         <v>0.5</v>
@@ -11834,28 +11716,28 @@
         <v>1</v>
       </c>
       <c r="AE44" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="s">
         <v>189</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AK44" t="s">
         <v>190</v>
       </c>
-      <c r="AH44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="s">
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="s">
         <v>191</v>
       </c>
-      <c r="AK44" t="s">
+      <c r="AN44" t="s">
         <v>192</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>194</v>
       </c>
       <c r="AO44">
         <v>0</v>
@@ -11879,39 +11761,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
         <v>72</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H45" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L45">
         <v>0.5</v>
       </c>
       <c r="M45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P45">
         <v>0.5</v>
@@ -11944,28 +11826,28 @@
         <v>1</v>
       </c>
       <c r="AE45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="s">
         <v>189</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AK45" t="s">
         <v>190</v>
       </c>
-      <c r="AH45" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="s">
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="s">
         <v>191</v>
       </c>
-      <c r="AK45" t="s">
+      <c r="AN45" t="s">
         <v>192</v>
-      </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>194</v>
       </c>
       <c r="AO45">
         <v>0</v>
@@ -11989,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -11997,31 +11879,31 @@
         <v>72</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L46">
         <v>0.5</v>
       </c>
       <c r="M46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P46">
         <v>0.5</v>
@@ -12054,28 +11936,28 @@
         <v>1</v>
       </c>
       <c r="AE46" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="s">
         <v>189</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AK46" t="s">
         <v>190</v>
       </c>
-      <c r="AH46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="s">
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="s">
         <v>191</v>
       </c>
-      <c r="AK46" t="s">
+      <c r="AN46" t="s">
         <v>192</v>
-      </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>194</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -12099,39 +11981,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>72</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L47">
         <v>0.5</v>
       </c>
       <c r="M47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P47">
         <v>0.5</v>
@@ -12164,28 +12046,28 @@
         <v>1</v>
       </c>
       <c r="AE47" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="s">
         <v>189</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AK47" t="s">
         <v>190</v>
       </c>
-      <c r="AH47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="s">
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="s">
         <v>191</v>
       </c>
-      <c r="AK47" t="s">
+      <c r="AN47" t="s">
         <v>192</v>
-      </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>194</v>
       </c>
       <c r="AO47">
         <v>0</v>
@@ -12209,39 +12091,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
         <v>72</v>
       </c>
       <c r="E48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L48">
         <v>0.5</v>
       </c>
       <c r="M48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P48">
         <v>0.5</v>
@@ -12274,28 +12156,28 @@
         <v>1</v>
       </c>
       <c r="AE48" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="s">
         <v>189</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AK48" t="s">
         <v>190</v>
       </c>
-      <c r="AH48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="s">
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="s">
         <v>191</v>
       </c>
-      <c r="AK48" t="s">
+      <c r="AN48" t="s">
         <v>192</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>194</v>
       </c>
       <c r="AO48">
         <v>0</v>
@@ -12319,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -12327,31 +12209,31 @@
         <v>72</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L49">
         <v>0.5</v>
       </c>
       <c r="M49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P49">
         <v>0.5</v>
@@ -12384,28 +12266,28 @@
         <v>1</v>
       </c>
       <c r="AE49" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="s">
         <v>189</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AK49" t="s">
         <v>190</v>
       </c>
-      <c r="AH49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="s">
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="s">
         <v>191</v>
       </c>
-      <c r="AK49" t="s">
+      <c r="AN49" t="s">
         <v>192</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>194</v>
       </c>
       <c r="AO49">
         <v>0</v>
@@ -12429,39 +12311,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L50">
         <v>0.5</v>
       </c>
       <c r="M50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P50">
         <v>0.5</v>
@@ -12494,28 +12376,28 @@
         <v>1</v>
       </c>
       <c r="AE50" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="s">
         <v>189</v>
       </c>
-      <c r="AG50" t="s">
+      <c r="AK50" t="s">
         <v>190</v>
       </c>
-      <c r="AH50" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="s">
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="s">
         <v>191</v>
       </c>
-      <c r="AK50" t="s">
+      <c r="AN50" t="s">
         <v>192</v>
-      </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>194</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -12539,39 +12421,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L51">
         <v>0.5</v>
       </c>
       <c r="M51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P51">
         <v>0.5</v>
@@ -12604,28 +12486,28 @@
         <v>1</v>
       </c>
       <c r="AE51" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="s">
         <v>189</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AK51" t="s">
         <v>190</v>
       </c>
-      <c r="AH51" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="s">
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="s">
         <v>191</v>
       </c>
-      <c r="AK51" t="s">
+      <c r="AN51" t="s">
         <v>192</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN51" t="s">
-        <v>194</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -12649,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -12657,31 +12539,31 @@
         <v>72</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L52">
         <v>0.5</v>
       </c>
       <c r="M52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P52">
         <v>0.5</v>
@@ -12714,28 +12596,28 @@
         <v>1</v>
       </c>
       <c r="AE52" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="s">
         <v>189</v>
       </c>
-      <c r="AG52" t="s">
+      <c r="AK52" t="s">
         <v>190</v>
       </c>
-      <c r="AH52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="s">
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="s">
         <v>191</v>
       </c>
-      <c r="AK52" t="s">
+      <c r="AN52" t="s">
         <v>192</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN52" t="s">
-        <v>194</v>
       </c>
       <c r="AO52">
         <v>0</v>
@@ -12759,39 +12641,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
         <v>72</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L53">
         <v>0.5</v>
       </c>
       <c r="M53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P53">
         <v>0.5</v>
@@ -12824,28 +12706,28 @@
         <v>1</v>
       </c>
       <c r="AE53" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="s">
         <v>189</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AK53" t="s">
         <v>190</v>
       </c>
-      <c r="AH53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="s">
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="s">
         <v>191</v>
       </c>
-      <c r="AK53" t="s">
+      <c r="AN53" t="s">
         <v>192</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN53" t="s">
-        <v>194</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -12869,39 +12751,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
         <v>72</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L54">
         <v>0.5</v>
       </c>
       <c r="M54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P54">
         <v>0.5</v>
@@ -12934,28 +12816,28 @@
         <v>1</v>
       </c>
       <c r="AE54" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="s">
         <v>189</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AK54" t="s">
         <v>190</v>
       </c>
-      <c r="AH54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="s">
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="s">
         <v>191</v>
       </c>
-      <c r="AK54" t="s">
+      <c r="AN54" t="s">
         <v>192</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>194</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -12979,7 +12861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:49">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -12987,31 +12869,31 @@
         <v>72</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L55">
         <v>0.5</v>
       </c>
       <c r="M55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P55">
         <v>0.5</v>
@@ -13044,28 +12926,28 @@
         <v>1</v>
       </c>
       <c r="AE55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="s">
         <v>189</v>
       </c>
-      <c r="AG55" t="s">
+      <c r="AK55" t="s">
         <v>190</v>
       </c>
-      <c r="AH55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="s">
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="s">
         <v>191</v>
       </c>
-      <c r="AK55" t="s">
+      <c r="AN55" t="s">
         <v>192</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN55" t="s">
-        <v>194</v>
       </c>
       <c r="AO55">
         <v>0</v>
@@ -13086,226 +12968,6 @@
         <v>0</v>
       </c>
       <c r="AW55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:49">
-      <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>178</v>
-      </c>
-      <c r="H56" t="s">
-        <v>182</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="s">
-        <v>186</v>
-      </c>
-      <c r="L56">
-        <v>0.5</v>
-      </c>
-      <c r="M56" t="s">
-        <v>187</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56" t="s">
-        <v>188</v>
-      </c>
-      <c r="P56">
-        <v>0.5</v>
-      </c>
-      <c r="R56">
-        <v>100</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>1</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN56" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AQ56">
-        <v>100</v>
-      </c>
-      <c r="AS56">
-        <v>35</v>
-      </c>
-      <c r="AT56">
-        <v>35</v>
-      </c>
-      <c r="AU56">
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <v>0</v>
-      </c>
-      <c r="AW56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:49">
-      <c r="A57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" t="s">
-        <v>80</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="s">
-        <v>186</v>
-      </c>
-      <c r="L57">
-        <v>0.5</v>
-      </c>
-      <c r="M57" t="s">
-        <v>187</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P57">
-        <v>0.5</v>
-      </c>
-      <c r="R57">
-        <v>100</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>1</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL57">
-        <v>0</v>
-      </c>
-      <c r="AM57" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN57" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-      <c r="AQ57">
-        <v>100</v>
-      </c>
-      <c r="AS57">
-        <v>35</v>
-      </c>
-      <c r="AT57">
-        <v>35</v>
-      </c>
-      <c r="AU57">
-        <v>0</v>
-      </c>
-      <c r="AV57">
-        <v>0</v>
-      </c>
-      <c r="AW57">
         <v>0</v>
       </c>
     </row>

--- a/OpsAndMats/Model148.xlsx
+++ b/OpsAndMats/Model148.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclark.LABTESTING\Documents\ERP Notes\Phase2_BOM\OpsAndMats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFB31DB-1979-4657-A470-4DD30505CA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Operations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="193">
   <si>
     <t>Item</t>
   </si>
@@ -170,246 +164,246 @@
     <t>8026417-2</t>
   </si>
   <si>
+    <t>8026391</t>
+  </si>
+  <si>
+    <t>8034957</t>
+  </si>
+  <si>
+    <t>8034957-G</t>
+  </si>
+  <si>
+    <t>8034957-H</t>
+  </si>
+  <si>
+    <t>8034957-A</t>
+  </si>
+  <si>
+    <t>8034957-E</t>
+  </si>
+  <si>
+    <t>8034957-F</t>
+  </si>
+  <si>
+    <t>8034957-B</t>
+  </si>
+  <si>
+    <t>8034957-C</t>
+  </si>
+  <si>
+    <t>8035009-X</t>
+  </si>
+  <si>
+    <t>8035009-A</t>
+  </si>
+  <si>
+    <t>8035009-B</t>
+  </si>
+  <si>
+    <t>8035009-1</t>
+  </si>
+  <si>
+    <t>8035009-2</t>
+  </si>
+  <si>
+    <t>8035009-3</t>
+  </si>
+  <si>
+    <t>8035009-4</t>
+  </si>
+  <si>
+    <t>MODEL 148AC INSTRUMENT STAND WITH MAC-F…</t>
+  </si>
+  <si>
+    <t>SHELF FOR MODEL 148AC INSTRUMENT CABINE…</t>
+  </si>
+  <si>
+    <t>EXTENSION FOOT ASSEMBLY FOR MOD 76E TES…</t>
+  </si>
+  <si>
+    <t>Leg Lagging Plate</t>
+  </si>
+  <si>
+    <t>WELD ASSEMBLY FOR MODEL 148AC INSTRUMEN…</t>
+  </si>
+  <si>
+    <t>MOUNTING PLATE WELD ASSEMBLY FOR MAC-FD…</t>
+  </si>
+  <si>
+    <t>ASY010</t>
+  </si>
+  <si>
+    <t>FAB010</t>
+  </si>
+  <si>
+    <t>FIN020</t>
+  </si>
+  <si>
+    <t>FAB070</t>
+  </si>
+  <si>
+    <t>EXT010</t>
+  </si>
+  <si>
+    <t>Assembly, System</t>
+  </si>
+  <si>
+    <t>Fabrication, Saw</t>
+  </si>
+  <si>
+    <t>Finishing, Paint</t>
+  </si>
+  <si>
+    <t>Fabrication, Welding</t>
+  </si>
+  <si>
+    <t>External Operations</t>
+  </si>
+  <si>
+    <t>1421705</t>
+  </si>
+  <si>
+    <t>1606101</t>
+  </si>
+  <si>
+    <t>1506101</t>
+  </si>
+  <si>
+    <t>7181005</t>
+  </si>
+  <si>
+    <t>7181006</t>
+  </si>
+  <si>
+    <t>7181004</t>
+  </si>
+  <si>
+    <t>7181007</t>
+  </si>
+  <si>
+    <t>2292008</t>
+  </si>
+  <si>
+    <t>2152002</t>
+  </si>
+  <si>
+    <t>9561031-A</t>
+  </si>
+  <si>
+    <t>9735003</t>
+  </si>
+  <si>
+    <t>9710001</t>
+  </si>
+  <si>
+    <t>2507201</t>
+  </si>
+  <si>
+    <t>2577201</t>
+  </si>
+  <si>
+    <t>2402006</t>
+  </si>
+  <si>
+    <t>9691050</t>
+  </si>
+  <si>
+    <t>9812001</t>
+  </si>
+  <si>
     <t>8025044-9</t>
   </si>
   <si>
-    <t>8026391</t>
-  </si>
-  <si>
-    <t>8034957</t>
-  </si>
-  <si>
-    <t>8034957-G</t>
-  </si>
-  <si>
-    <t>8034957-H</t>
-  </si>
-  <si>
-    <t>8034957-A</t>
-  </si>
-  <si>
-    <t>8034957-E</t>
-  </si>
-  <si>
-    <t>8034957-F</t>
-  </si>
-  <si>
-    <t>8034957-B</t>
-  </si>
-  <si>
-    <t>8034957-C</t>
-  </si>
-  <si>
-    <t>8035009-X</t>
-  </si>
-  <si>
-    <t>8035009-A</t>
-  </si>
-  <si>
-    <t>8035009-B</t>
-  </si>
-  <si>
-    <t>8035009-1</t>
-  </si>
-  <si>
-    <t>8035009-2</t>
-  </si>
-  <si>
-    <t>8035009-3</t>
-  </si>
-  <si>
-    <t>8035009-4</t>
-  </si>
-  <si>
-    <t>MODEL 148AC INSTRUMENT STAND WITH MAC-F…</t>
-  </si>
-  <si>
-    <t>SHELF FOR MODEL 148AC INSTRUMENT CABINE…</t>
-  </si>
-  <si>
-    <t>EXTENSION FOOT ASSEMBLY FOR MOD 76E TES…</t>
+    <t>2034701</t>
+  </si>
+  <si>
+    <t>9030240-3</t>
+  </si>
+  <si>
+    <t>6960011</t>
+  </si>
+  <si>
+    <t>9816001</t>
+  </si>
+  <si>
+    <t>3130003</t>
+  </si>
+  <si>
+    <t>9018204-2</t>
+  </si>
+  <si>
+    <t>9011243</t>
+  </si>
+  <si>
+    <t>9014122-4</t>
+  </si>
+  <si>
+    <t>SHCS, 10-32, 5/8, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Lock, Ext. Tooth, #10, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Standard, #10, St. Stl.</t>
+  </si>
+  <si>
+    <t>Wall Mount LCD Arm, LX, Sit-Stand</t>
+  </si>
+  <si>
+    <t>Wall Mount Keyboard Arm, LX</t>
+  </si>
+  <si>
+    <t>Wall Track, 26"</t>
+  </si>
+  <si>
+    <t>Wall Mount Mounting Bracket</t>
+  </si>
+  <si>
+    <t>M.Scr, 82°FH, ¼-20, 1, Pl. Stl.</t>
+  </si>
+  <si>
+    <t>Nut, Self Clinching, ¼-20, Pl. Stl.</t>
+  </si>
+  <si>
+    <t>ABS Plastic, 1/32" thk., 1/2" wide.</t>
+  </si>
+  <si>
+    <t>Light Duty Mounting Tape, 1/2" wd.</t>
+  </si>
+  <si>
+    <t>Thread Locker, Low Torque, Purple</t>
+  </si>
+  <si>
+    <t>Washer, Standard, ¼, Pl. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Split Lock, Med, ¼, Pl. Stl.</t>
+  </si>
+  <si>
+    <t>HHCS, ¼-20, 3/4, Pl. Stl.</t>
+  </si>
+  <si>
+    <t>Sheet, MDF, 1/2" thk.</t>
+  </si>
+  <si>
+    <t>Paint, Polane B, Circuit Blue</t>
   </si>
   <si>
     <t>Threaded Rod, Zinc Plated</t>
   </si>
   <si>
-    <t>Leg Lagging Plate</t>
-  </si>
-  <si>
-    <t>WELD ASSEMBLY FOR MODEL 148AC INSTRUMEN…</t>
-  </si>
-  <si>
-    <t>MOUNTING PLATE WELD ASSEMBLY FOR MAC-FD…</t>
-  </si>
-  <si>
-    <t>ASY010</t>
-  </si>
-  <si>
-    <t>FAB010</t>
-  </si>
-  <si>
-    <t>FIN020</t>
-  </si>
-  <si>
-    <t>EXT010</t>
-  </si>
-  <si>
-    <t>FAB070</t>
-  </si>
-  <si>
-    <t>Assembly, System</t>
-  </si>
-  <si>
-    <t>Fabrication, Saw</t>
-  </si>
-  <si>
-    <t>Finishing, Paint</t>
-  </si>
-  <si>
-    <t>External Operations</t>
-  </si>
-  <si>
-    <t>Fabrication, Welding</t>
-  </si>
-  <si>
-    <t>1421705</t>
-  </si>
-  <si>
-    <t>1606101</t>
-  </si>
-  <si>
-    <t>1506101</t>
-  </si>
-  <si>
-    <t>7181005</t>
-  </si>
-  <si>
-    <t>7181006</t>
-  </si>
-  <si>
-    <t>7181004</t>
-  </si>
-  <si>
-    <t>7181007</t>
-  </si>
-  <si>
-    <t>2292008</t>
-  </si>
-  <si>
-    <t>2152002</t>
-  </si>
-  <si>
-    <t>9561031-A</t>
-  </si>
-  <si>
-    <t>9735003</t>
-  </si>
-  <si>
-    <t>9710001</t>
-  </si>
-  <si>
-    <t>2507201</t>
-  </si>
-  <si>
-    <t>2577201</t>
-  </si>
-  <si>
-    <t>2402006</t>
-  </si>
-  <si>
-    <t>9691050</t>
-  </si>
-  <si>
-    <t>9812001</t>
-  </si>
-  <si>
-    <t>2034701</t>
-  </si>
-  <si>
-    <t>9816001</t>
-  </si>
-  <si>
-    <t>9030240-3</t>
-  </si>
-  <si>
-    <t>6960011</t>
-  </si>
-  <si>
-    <t>3130003</t>
-  </si>
-  <si>
-    <t>9018204-2</t>
-  </si>
-  <si>
-    <t>9011243</t>
-  </si>
-  <si>
-    <t>9014122-4</t>
-  </si>
-  <si>
-    <t>SHCS, 10-32, 5/8, St. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Lock, Ext. Tooth, #10, St. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Standard, #10, St. Stl.</t>
-  </si>
-  <si>
-    <t>Wall Mount LCD Arm, LX, Sit-Stand</t>
-  </si>
-  <si>
-    <t>Wall Mount Keyboard Arm, LX</t>
-  </si>
-  <si>
-    <t>Wall Track, 26"</t>
-  </si>
-  <si>
-    <t>Wall Mount Mounting Bracket</t>
-  </si>
-  <si>
-    <t>M.Scr, 82°FH, ¼-20, 1, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>Nut, Self Clinching, ¼-20, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>ABS Plastic, 1/32" thk., 1/2" wide.</t>
-  </si>
-  <si>
-    <t>Light Duty Mounting Tape, 1/2" wd.</t>
-  </si>
-  <si>
-    <t>Thread Locker, Low Torque, Purple</t>
-  </si>
-  <si>
-    <t>Washer, Standard, ¼, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Split Lock, Med, ¼, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>HHCS, ¼-20, 3/4, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>Sheet, MDF, 1/2" thk.</t>
-  </si>
-  <si>
-    <t>Paint, Polane B, Circuit Blue</t>
-  </si>
-  <si>
-    <t>Nut, ASF full, 1-8, Pl. Stl.</t>
+    <t>Hex Nut, full, 1-8, Pl. Stl.</t>
+  </si>
+  <si>
+    <t>5/16 x 2-1/2" CRS Bar</t>
+  </si>
+  <si>
+    <t>swivel pad with 1"-8 thd.</t>
   </si>
   <si>
     <t>Nickel Plating, Electroless</t>
   </si>
   <si>
-    <t>5/16 x 2-1/2" CRS Bar</t>
-  </si>
-  <si>
-    <t>swivel pad with 1"-8 thd.</t>
-  </si>
-  <si>
     <t>1"-8 heavy square nut, unplated</t>
   </si>
   <si>
@@ -428,13 +422,13 @@
     <t>EA</t>
   </si>
   <si>
+    <t>IN</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
     <t>g</t>
-  </si>
-  <si>
-    <t>IN</t>
   </si>
   <si>
     <t>Use Fixed Schedule</t>
@@ -605,8 +599,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,14 +663,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -723,7 +709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,27 +741,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,24 +775,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1000,16 +950,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ71"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,27 +1088,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1223,27 +1171,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1306,27 +1254,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1389,27 +1337,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1472,27 +1420,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1555,27 +1503,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1638,27 +1586,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1721,27 +1669,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -1804,27 +1752,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -1887,27 +1835,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1970,27 +1918,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -2053,27 +2001,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -2136,27 +2084,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K14">
         <v>13</v>
@@ -2219,27 +2167,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15">
         <v>14</v>
@@ -2302,27 +2250,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -2385,27 +2333,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K17">
         <v>16</v>
@@ -2468,27 +2416,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K18">
         <v>17</v>
@@ -2503,13 +2451,13 @@
         <v>8</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="T18" t="s">
         <v>133</v>
       </c>
       <c r="U18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2551,27 +2499,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K19">
         <v>18</v>
@@ -2586,13 +2534,13 @@
         <v>8</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="T19" t="s">
         <v>133</v>
       </c>
       <c r="U19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2634,27 +2582,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K20">
         <v>19</v>
@@ -2669,7 +2617,7 @@
         <v>8</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" t="s">
         <v>133</v>
@@ -2717,27 +2665,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K21">
         <v>20</v>
@@ -2752,7 +2700,7 @@
         <v>8</v>
       </c>
       <c r="S21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s">
         <v>133</v>
@@ -2800,27 +2748,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K22">
         <v>21</v>
@@ -2883,27 +2831,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K23">
         <v>22</v>
@@ -2966,33 +2914,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3001,7 +2949,7 @@
         <v>8</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T24" t="s">
         <v>133</v>
@@ -3049,27 +2997,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
         <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3132,27 +3080,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s">
         <v>43</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3215,33 +3163,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="J27" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3298,33 +3246,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="A28" t="s">
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3381,33 +3329,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29" t="s">
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3464,33 +3412,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43">
       <c r="A30" t="s">
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3499,7 +3447,7 @@
         <v>8</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="s">
         <v>133</v>
@@ -3547,33 +3495,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43">
       <c r="A31" t="s">
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3582,7 +3530,7 @@
         <v>8</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s">
         <v>133</v>
@@ -3630,33 +3578,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43">
       <c r="A32" t="s">
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3713,33 +3661,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3748,13 +3696,13 @@
         <v>8</v>
       </c>
       <c r="S33">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s">
         <v>133</v>
       </c>
       <c r="U33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3796,27 +3744,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43">
       <c r="A34" t="s">
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3831,7 +3779,7 @@
         <v>8</v>
       </c>
       <c r="S34">
-        <v>25</v>
+        <v>1.25</v>
       </c>
       <c r="T34" t="s">
         <v>133</v>
@@ -3879,15 +3827,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>73</v>
@@ -3896,10 +3844,10 @@
         <v>78</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3914,13 +3862,13 @@
         <v>8</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T35" t="s">
         <v>133</v>
       </c>
       <c r="U35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3962,33 +3910,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43">
       <c r="A36" t="s">
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3997,7 +3945,7 @@
         <v>8</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36" t="s">
         <v>133</v>
@@ -4045,33 +3993,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43">
       <c r="A37" t="s">
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="J37" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4080,7 +4028,7 @@
         <v>8</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T37" t="s">
         <v>133</v>
@@ -4128,33 +4076,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -4163,13 +4111,13 @@
         <v>8</v>
       </c>
       <c r="S38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T38" t="s">
         <v>133</v>
       </c>
       <c r="U38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4211,27 +4159,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
         <v>77</v>
       </c>
-      <c r="H39" t="s">
-        <v>82</v>
-      </c>
       <c r="I39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4246,13 +4194,13 @@
         <v>8</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T39" t="s">
         <v>133</v>
       </c>
       <c r="U39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4294,27 +4242,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43">
       <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40">
         <v>50</v>
       </c>
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40">
-        <v>60</v>
-      </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s">
         <v>101</v>
       </c>
       <c r="J40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4377,27 +4325,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="J41" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4460,33 +4408,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4543,33 +4491,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -4578,7 +4526,7 @@
         <v>8</v>
       </c>
       <c r="S43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T43" t="s">
         <v>133</v>
@@ -4626,33 +4574,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4661,13 +4609,13 @@
         <v>8</v>
       </c>
       <c r="S44">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s">
         <v>133</v>
       </c>
       <c r="U44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4709,27 +4657,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="J45" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4744,13 +4692,13 @@
         <v>8</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T45" t="s">
         <v>133</v>
       </c>
       <c r="U45" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4792,33 +4740,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4827,7 +4775,7 @@
         <v>8</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T46" t="s">
         <v>133</v>
@@ -4875,33 +4823,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -4910,7 +4858,7 @@
         <v>8</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T47" t="s">
         <v>133</v>
@@ -4958,33 +4906,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -5041,33 +4989,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E49">
         <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="J49" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5076,7 +5024,7 @@
         <v>8</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s">
         <v>133</v>
@@ -5124,33 +5072,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50">
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="J50" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5159,7 +5107,7 @@
         <v>8</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T50" t="s">
         <v>133</v>
@@ -5207,33 +5155,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5242,7 +5190,7 @@
         <v>8</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s">
         <v>133</v>
@@ -5290,33 +5238,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52">
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5373,33 +5321,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5456,12 +5404,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -5473,16 +5421,16 @@
         <v>79</v>
       </c>
       <c r="I54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5491,13 +5439,13 @@
         <v>8</v>
       </c>
       <c r="S54">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="T54" t="s">
         <v>133</v>
       </c>
       <c r="U54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5539,24 +5487,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J55" t="s">
         <v>130</v>
@@ -5580,7 +5528,7 @@
         <v>133</v>
       </c>
       <c r="U55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5622,24 +5570,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J56" t="s">
         <v>130</v>
@@ -5663,7 +5611,7 @@
         <v>133</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5705,24 +5653,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J57" t="s">
         <v>130</v>
@@ -5740,13 +5688,13 @@
         <v>8</v>
       </c>
       <c r="S57">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="T57" t="s">
         <v>133</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5788,24 +5736,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J58" t="s">
         <v>130</v>
@@ -5823,13 +5771,13 @@
         <v>8</v>
       </c>
       <c r="S58">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="T58" t="s">
         <v>133</v>
       </c>
       <c r="U58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5871,27 +5819,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E59">
         <v>10</v>
       </c>
       <c r="G59" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" t="s">
         <v>77</v>
       </c>
-      <c r="H59" t="s">
-        <v>82</v>
-      </c>
       <c r="I59" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="J59" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5906,13 +5854,13 @@
         <v>8</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T59" t="s">
         <v>133</v>
       </c>
       <c r="U59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -5954,33 +5902,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E60">
         <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -6037,12 +5985,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E61">
         <v>10</v>
@@ -6054,16 +6002,16 @@
         <v>79</v>
       </c>
       <c r="I61" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6072,13 +6020,13 @@
         <v>8</v>
       </c>
       <c r="S61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T61" t="s">
         <v>133</v>
       </c>
       <c r="U61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -6120,27 +6068,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -6155,13 +6103,13 @@
         <v>8</v>
       </c>
       <c r="S62">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="T62" t="s">
         <v>133</v>
       </c>
       <c r="U62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -6203,27 +6151,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E63">
         <v>10</v>
       </c>
       <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s">
         <v>77</v>
       </c>
-      <c r="H63" t="s">
-        <v>82</v>
-      </c>
       <c r="I63" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="J63" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -6238,13 +6186,13 @@
         <v>8</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T63" t="s">
         <v>133</v>
       </c>
       <c r="U63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -6286,27 +6234,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E64">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I64" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J64" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -6321,13 +6269,13 @@
         <v>8</v>
       </c>
       <c r="S64">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T64" t="s">
         <v>133</v>
       </c>
       <c r="U64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -6369,27 +6317,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="J65" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -6404,13 +6352,13 @@
         <v>8</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T65" t="s">
         <v>133</v>
       </c>
       <c r="U65" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6452,27 +6400,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E66">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J66" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -6487,13 +6435,13 @@
         <v>8</v>
       </c>
       <c r="S66">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T66" t="s">
         <v>133</v>
       </c>
       <c r="U66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -6535,27 +6483,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I67" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="J67" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6570,13 +6518,13 @@
         <v>8</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T67" t="s">
         <v>133</v>
       </c>
       <c r="U67" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -6618,27 +6566,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E68">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J68" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6653,13 +6601,13 @@
         <v>8</v>
       </c>
       <c r="S68">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T68" t="s">
         <v>133</v>
       </c>
       <c r="U68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -6701,27 +6649,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H69" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I69" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="J69" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -6736,13 +6684,13 @@
         <v>8</v>
       </c>
       <c r="S69">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T69" t="s">
         <v>133</v>
       </c>
       <c r="U69" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -6784,27 +6732,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E70">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I70" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J70" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6819,13 +6767,13 @@
         <v>8</v>
       </c>
       <c r="S70">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T70" t="s">
         <v>133</v>
       </c>
       <c r="U70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -6864,6 +6812,89 @@
         <v>0</v>
       </c>
       <c r="AQ70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J71" t="s">
+        <v>123</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>8</v>
+      </c>
+      <c r="S71">
+        <v>25</v>
+      </c>
+      <c r="T71" t="s">
+        <v>133</v>
+      </c>
+      <c r="U71" t="s">
+        <v>137</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
         <v>0</v>
       </c>
     </row>
@@ -6873,16 +6904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7031,21 +7060,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -7141,21 +7170,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -7251,21 +7280,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -7361,21 +7390,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -7471,21 +7500,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -7581,12 +7610,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -7691,21 +7720,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -7801,21 +7830,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -7911,21 +7940,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -8021,12 +8050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -8131,12 +8160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -8241,12 +8270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -8351,21 +8380,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -8461,21 +8490,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -8571,21 +8600,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -8681,12 +8710,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -8791,21 +8820,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E18">
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -8901,21 +8930,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -9011,21 +9040,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -9121,21 +9150,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -9231,12 +9260,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -9341,12 +9370,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -9451,12 +9480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>40</v>
@@ -9561,21 +9590,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -9671,12 +9700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -9781,12 +9810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E27">
         <v>30</v>
@@ -9891,12 +9920,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>40</v>
@@ -10001,21 +10030,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -10111,12 +10140,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -10221,12 +10250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -10331,12 +10360,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32">
         <v>40</v>
@@ -10441,21 +10470,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -10551,21 +10580,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -10661,21 +10690,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -10771,21 +10800,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -10881,12 +10910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -10991,12 +11020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E38">
         <v>30</v>
@@ -11101,12 +11130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E39">
         <v>40</v>
@@ -11211,21 +11240,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E40">
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -11321,12 +11350,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -11431,12 +11460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E42">
         <v>30</v>
@@ -11541,12 +11570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>40</v>
@@ -11651,21 +11680,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -11761,12 +11790,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E45">
         <v>20</v>
@@ -11871,21 +11900,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E46">
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -11981,21 +12010,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -12091,12 +12120,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:49">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -12201,21 +12230,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E49">
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -12311,21 +12340,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:49">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E50">
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -12421,12 +12450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:49">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -12531,21 +12560,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:49">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E52">
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -12641,21 +12670,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:49">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -12751,12 +12780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:49">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E54">
         <v>20</v>
@@ -12861,21 +12890,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E55">
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I55">
         <v>0</v>

--- a/OpsAndMats/Model148.xlsx
+++ b/OpsAndMats/Model148.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="193">
   <si>
     <t>Item</t>
   </si>
@@ -317,13 +317,13 @@
     <t>2034701</t>
   </si>
   <si>
-    <t>9030240-3</t>
+    <t>9030240-312</t>
   </si>
   <si>
     <t>6960011</t>
   </si>
   <si>
-    <t>9816001</t>
+    <t>9816011</t>
   </si>
   <si>
     <t>3130003</t>
@@ -401,7 +401,7 @@
     <t>swivel pad with 1"-8 thd.</t>
   </si>
   <si>
-    <t>Nickel Plating, Electroless</t>
+    <t>Zinc Plating</t>
   </si>
   <si>
     <t>1"-8 heavy square nut, unplated</t>
@@ -548,25 +548,25 @@
     <t>FIN010</t>
   </si>
   <si>
+    <t>FAB040</t>
+  </si>
+  <si>
     <t>FAB020</t>
   </si>
   <si>
     <t>FAB030</t>
   </si>
   <si>
-    <t>FAB040</t>
-  </si>
-  <si>
     <t>Finishing, Surface Prep</t>
   </si>
   <si>
+    <t>Fabrication, Drill</t>
+  </si>
+  <si>
     <t>Fabrication, Layout</t>
   </si>
   <si>
     <t>Fabrication, Check</t>
-  </si>
-  <si>
-    <t>Fabrication, Drill</t>
   </si>
   <si>
     <t>Mch Hours/Pc</t>
@@ -4250,7 +4250,7 @@
         <v>68</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>74</v>
@@ -4333,7 +4333,7 @@
         <v>68</v>
       </c>
       <c r="E41">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
         <v>75</v>
@@ -6905,7 +6905,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW55"/>
+  <dimension ref="A1:AW53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8171,10 +8171,10 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -8281,10 +8281,10 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -8382,13 +8382,13 @@
     </row>
     <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>74</v>
@@ -8492,19 +8492,19 @@
     </row>
     <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -8608,13 +8608,13 @@
         <v>69</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -8712,19 +8712,19 @@
     </row>
     <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -8822,19 +8822,19 @@
     </row>
     <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="19" spans="1:49">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -8941,10 +8941,10 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -9042,19 +9042,19 @@
     </row>
     <row r="20" spans="1:49">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -9158,13 +9158,13 @@
         <v>69</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>69</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
         <v>177</v>
@@ -9372,19 +9372,19 @@
     </row>
     <row r="23" spans="1:49">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -9482,19 +9482,19 @@
     </row>
     <row r="24" spans="1:49">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -9598,13 +9598,13 @@
         <v>69</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -9708,7 +9708,7 @@
         <v>69</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
         <v>177</v>
@@ -9812,19 +9812,19 @@
     </row>
     <row r="27" spans="1:49">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>69</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -9922,19 +9922,19 @@
     </row>
     <row r="28" spans="1:49">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -10038,13 +10038,13 @@
         <v>69</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>69</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
         <v>177</v>
@@ -10252,19 +10252,19 @@
     </row>
     <row r="31" spans="1:49">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>69</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -10362,19 +10362,19 @@
     </row>
     <row r="32" spans="1:49">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -10472,19 +10472,19 @@
     </row>
     <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -10582,10 +10582,10 @@
     </row>
     <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -10692,19 +10692,19 @@
     </row>
     <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -10808,13 +10808,13 @@
         <v>70</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="H36" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>70</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
         <v>177</v>
@@ -11022,19 +11022,19 @@
     </row>
     <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -11132,19 +11132,19 @@
     </row>
     <row r="39" spans="1:49">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -11248,13 +11248,13 @@
         <v>70</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -11358,7 +11358,7 @@
         <v>70</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
         <v>177</v>
@@ -11462,19 +11462,19 @@
     </row>
     <row r="42" spans="1:49">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -11572,19 +11572,19 @@
     </row>
     <row r="43" spans="1:49">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>70</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H43" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -11688,13 +11688,13 @@
         <v>70</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -11792,19 +11792,19 @@
     </row>
     <row r="45" spans="1:49">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
         <v>70</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -11902,19 +11902,19 @@
     </row>
     <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
         <v>70</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -12018,13 +12018,13 @@
         <v>70</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -12122,19 +12122,19 @@
     </row>
     <row r="48" spans="1:49">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -12232,19 +12232,19 @@
     </row>
     <row r="49" spans="1:49">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
         <v>70</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -12348,13 +12348,13 @@
         <v>70</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -12452,19 +12452,19 @@
     </row>
     <row r="51" spans="1:49">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
         <v>70</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -12562,19 +12562,19 @@
     </row>
     <row r="52" spans="1:49">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
       </c>
       <c r="E52">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -12678,13 +12678,13 @@
         <v>70</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -12777,226 +12777,6 @@
         <v>0</v>
       </c>
       <c r="AW53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:49">
-      <c r="A54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54" t="s">
-        <v>180</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="K54" t="s">
-        <v>184</v>
-      </c>
-      <c r="L54">
-        <v>0.5</v>
-      </c>
-      <c r="M54" t="s">
-        <v>185</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54" t="s">
-        <v>186</v>
-      </c>
-      <c r="P54">
-        <v>0.5</v>
-      </c>
-      <c r="R54">
-        <v>100</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>192</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AQ54">
-        <v>100</v>
-      </c>
-      <c r="AS54">
-        <v>35</v>
-      </c>
-      <c r="AT54">
-        <v>35</v>
-      </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
-      <c r="AV54">
-        <v>0</v>
-      </c>
-      <c r="AW54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:49">
-      <c r="A55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" t="s">
-        <v>78</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>184</v>
-      </c>
-      <c r="L55">
-        <v>0.5</v>
-      </c>
-      <c r="M55" t="s">
-        <v>185</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55" t="s">
-        <v>186</v>
-      </c>
-      <c r="P55">
-        <v>0.5</v>
-      </c>
-      <c r="R55">
-        <v>100</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>1</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN55" t="s">
-        <v>192</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>100</v>
-      </c>
-      <c r="AS55">
-        <v>35</v>
-      </c>
-      <c r="AT55">
-        <v>35</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
         <v>0</v>
       </c>
     </row>

--- a/OpsAndMats/Model148.xlsx
+++ b/OpsAndMats/Model148.xlsx
@@ -332,7 +332,7 @@
     <t>9018204-2</t>
   </si>
   <si>
-    <t>9011243</t>
+    <t>9010240-187</t>
   </si>
   <si>
     <t>9014122-4</t>
